--- a/FastfoodManagementFinal/ExcelTemplate/Hóa-đơn.xlsx
+++ b/FastfoodManagementFinal/ExcelTemplate/Hóa-đơn.xlsx
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>STT</t>
   </si>
@@ -84,9 +84,6 @@
     <t>Mã KH:</t>
   </si>
   <si>
-    <t>NV01</t>
-  </si>
-  <si>
     <t>Số HD:</t>
   </si>
   <si>
@@ -94,12 +91,6 @@
   </si>
   <si>
     <t>Khuyến mãi:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mã NV: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tên NV: </t>
   </si>
   <si>
     <t xml:space="preserve">Thời gian: </t>
@@ -584,6 +575,86 @@
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="#,##0\ [$VND]"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="#,##0\ [$VND]"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
@@ -602,8 +673,6 @@
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -613,6 +682,28 @@
         <name val="Arial"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -645,14 +736,6 @@
         <name val="Arial"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="166" formatCode="#,##0\ [$VND]"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -679,6 +762,8 @@
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -688,100 +773,6 @@
         <name val="Arial"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="166" formatCode="#,##0\ [$VND]"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -1086,11 +1077,11 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Invoice" displayName="Invoice" ref="B10:F21" totalsRowCount="1" headerRowDxfId="11" dataDxfId="9" totalsRowDxfId="8" headerRowBorderDxfId="10">
   <tableColumns count="5">
-    <tableColumn id="1" name="STT" dataDxfId="7" totalsRowDxfId="2"/>
-    <tableColumn id="2" name="Tên Sản Phẩm" dataDxfId="6" totalsRowDxfId="1"/>
-    <tableColumn id="3" name="Số Lượng" dataDxfId="5" totalsRowDxfId="0"/>
-    <tableColumn id="4" name="Đơn Giá" dataDxfId="4"/>
-    <tableColumn id="7" name="Thành Tiền" dataDxfId="3"/>
+    <tableColumn id="1" name="STT" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="2" name="Tên Sản Phẩm" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="3" name="Số Lượng" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="4" name="Đơn Giá" dataDxfId="1"/>
+    <tableColumn id="7" name="Thành Tiền" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Billing Statement (Simple)" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
   <extLst>
@@ -1395,7 +1386,7 @@
   <dimension ref="A1:P38"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="40" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+      <selection activeCell="B3" sqref="B3:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1431,12 +1422,8 @@
     </row>
     <row r="3" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
-      <c r="B3" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>7</v>
-      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="12"/>
       <c r="D3" s="5"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -1444,9 +1431,7 @@
     </row>
     <row r="4" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="11" t="s">
-        <v>12</v>
-      </c>
+      <c r="B4" s="11"/>
       <c r="C4" s="15"/>
       <c r="D4" s="5"/>
       <c r="E4" s="9" t="s">
@@ -1460,12 +1445,12 @@
     <row r="5" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="4"/>
       <c r="E5" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F5" s="12"/>
       <c r="G5" s="2"/>
@@ -1475,12 +1460,12 @@
     <row r="6" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2"/>
       <c r="B6" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="3"/>
       <c r="E6" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="2"/>
@@ -1661,7 +1646,7 @@
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="31" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F22" s="30"/>
       <c r="G22" s="2"/>
@@ -1674,7 +1659,7 @@
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="31" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F23" s="30"/>
       <c r="G23" s="2"/>
@@ -1688,7 +1673,7 @@
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="31" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F24" s="30"/>
       <c r="G24" s="2"/>
@@ -1850,35 +1835,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="26" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ac37c1753acd5e330d2062ccec26ea66">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3b340c7101c92c5120abd06486f94548" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2178,10 +2134,52 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01815C38-0DAD-4C22-BBA5-B171C6CADCCB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2A49832-1F43-48F5-88D4-89D3C8860DE9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2206,22 +2204,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2A49832-1F43-48F5-88D4-89D3C8860DE9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01815C38-0DAD-4C22-BBA5-B171C6CADCCB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/FastfoodManagementFinal/ExcelTemplate/Hóa-đơn.xlsx
+++ b/FastfoodManagementFinal/ExcelTemplate/Hóa-đơn.xlsx
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>STT</t>
   </si>
@@ -94,15 +94,6 @@
   </si>
   <si>
     <t xml:space="preserve">Thời gian: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Giảm giá: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tổng tiền: </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Tổng: </t>
   </si>
 </sst>
 </file>
@@ -575,86 +566,6 @@
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="#,##0\ [$VND]"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="#,##0\ [$VND]"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
@@ -673,6 +584,8 @@
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -682,28 +595,6 @@
         <name val="Arial"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -736,6 +627,14 @@
         <name val="Arial"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="166" formatCode="#,##0\ [$VND]"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -762,8 +661,6 @@
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -773,6 +670,100 @@
         <name val="Arial"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="166" formatCode="#,##0\ [$VND]"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1077,11 +1068,11 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Invoice" displayName="Invoice" ref="B10:F21" totalsRowCount="1" headerRowDxfId="11" dataDxfId="9" totalsRowDxfId="8" headerRowBorderDxfId="10">
   <tableColumns count="5">
-    <tableColumn id="1" name="STT" dataDxfId="7" totalsRowDxfId="6"/>
-    <tableColumn id="2" name="Tên Sản Phẩm" dataDxfId="5" totalsRowDxfId="4"/>
-    <tableColumn id="3" name="Số Lượng" dataDxfId="3" totalsRowDxfId="2"/>
-    <tableColumn id="4" name="Đơn Giá" dataDxfId="1"/>
-    <tableColumn id="7" name="Thành Tiền" dataDxfId="0"/>
+    <tableColumn id="1" name="STT" dataDxfId="7" totalsRowDxfId="2"/>
+    <tableColumn id="2" name="Tên Sản Phẩm" dataDxfId="6" totalsRowDxfId="1"/>
+    <tableColumn id="3" name="Số Lượng" dataDxfId="5" totalsRowDxfId="0"/>
+    <tableColumn id="4" name="Đơn Giá" dataDxfId="4"/>
+    <tableColumn id="7" name="Thành Tiền" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="Billing Statement (Simple)" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
   <extLst>
@@ -1386,7 +1377,7 @@
   <dimension ref="A1:P38"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="40" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C4"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1645,9 +1636,7 @@
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
-      <c r="E22" s="31" t="s">
-        <v>13</v>
-      </c>
+      <c r="E22" s="31"/>
       <c r="F22" s="30"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -1658,9 +1647,7 @@
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
-      <c r="E23" s="31" t="s">
-        <v>11</v>
-      </c>
+      <c r="E23" s="31"/>
       <c r="F23" s="30"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -1672,9 +1659,7 @@
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
-      <c r="E24" s="31" t="s">
-        <v>12</v>
-      </c>
+      <c r="E24" s="31"/>
       <c r="F24" s="30"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
@@ -1835,6 +1820,35 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="26" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ac37c1753acd5e330d2062ccec26ea66">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3b340c7101c92c5120abd06486f94548" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2134,52 +2148,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2A49832-1F43-48F5-88D4-89D3C8860DE9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01815C38-0DAD-4C22-BBA5-B171C6CADCCB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2204,9 +2176,22 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01815C38-0DAD-4C22-BBA5-B171C6CADCCB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2A49832-1F43-48F5-88D4-89D3C8860DE9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
